--- a/Code/Results/Cases/Case_3_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_142/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.17194283580153</v>
+        <v>16.02256285711054</v>
       </c>
       <c r="C2">
-        <v>20.67987585803721</v>
+        <v>11.83757829174547</v>
       </c>
       <c r="D2">
-        <v>3.066535040438696</v>
+        <v>4.567032479076931</v>
       </c>
       <c r="F2">
-        <v>24.16086912997654</v>
+        <v>25.75136884412301</v>
       </c>
       <c r="G2">
-        <v>2.049847074043283</v>
+        <v>3.623521267948413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.07770021714237</v>
+        <v>19.75436466236953</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.43540325956858</v>
+        <v>15.30174406432782</v>
       </c>
       <c r="C3">
-        <v>19.22830768716706</v>
+        <v>11.15164274086809</v>
       </c>
       <c r="D3">
-        <v>3.16826303384307</v>
+        <v>4.595329416647688</v>
       </c>
       <c r="F3">
-        <v>23.10101046543765</v>
+        <v>25.70692265931041</v>
       </c>
       <c r="G3">
-        <v>2.060309135454493</v>
+        <v>3.627117985284113</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.18943409458418</v>
+        <v>19.91627106405603</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.3114200816018</v>
+        <v>14.84384209161699</v>
       </c>
       <c r="C4">
-        <v>18.29079196921512</v>
+        <v>10.70997559506592</v>
       </c>
       <c r="D4">
-        <v>3.232595423701719</v>
+        <v>4.613666375536664</v>
       </c>
       <c r="F4">
-        <v>22.48081027681737</v>
+        <v>25.69359818824865</v>
       </c>
       <c r="G4">
-        <v>2.06686569341938</v>
+        <v>3.629438500769168</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.29480471103844</v>
+        <v>20.02401601074505</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.83868284480826</v>
+        <v>14.65365645095613</v>
       </c>
       <c r="C5">
-        <v>17.89693523091277</v>
+        <v>10.52499156882023</v>
       </c>
       <c r="D5">
-        <v>3.25926708280674</v>
+        <v>4.621381281719958</v>
       </c>
       <c r="F5">
-        <v>22.23589960296</v>
+        <v>25.69166318260308</v>
       </c>
       <c r="G5">
-        <v>2.069573577141173</v>
+        <v>3.630412430455598</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.34616255436278</v>
+        <v>20.07000032548402</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.75929181320247</v>
+        <v>14.6218680899397</v>
       </c>
       <c r="C6">
-        <v>17.83081710854502</v>
+        <v>10.49397820806057</v>
       </c>
       <c r="D6">
-        <v>3.263723093494949</v>
+        <v>4.622676991901289</v>
       </c>
       <c r="F6">
-        <v>22.19570907385301</v>
+        <v>25.69155234377818</v>
       </c>
       <c r="G6">
-        <v>2.070025468611465</v>
+        <v>3.630575863210736</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.35517548412319</v>
+        <v>20.07776092801564</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.30510436006881</v>
+        <v>14.84129132802053</v>
       </c>
       <c r="C7">
-        <v>18.28552833730967</v>
+        <v>10.70750085749212</v>
       </c>
       <c r="D7">
-        <v>3.232953297151594</v>
+        <v>4.613769439276879</v>
       </c>
       <c r="F7">
-        <v>22.47747545415336</v>
+        <v>25.69355796865769</v>
       </c>
       <c r="G7">
-        <v>2.06690206365479</v>
+        <v>3.62945152079503</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.29546432065194</v>
+        <v>20.02462778408241</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.58505294547935</v>
+        <v>15.77735099234826</v>
       </c>
       <c r="C8">
-        <v>20.18886039236327</v>
+        <v>11.60540502339296</v>
       </c>
       <c r="D8">
-        <v>3.101211603483407</v>
+        <v>4.576589730464344</v>
       </c>
       <c r="F8">
-        <v>23.78917168473879</v>
+        <v>25.73313685685498</v>
       </c>
       <c r="G8">
-        <v>2.053428484908621</v>
+        <v>3.62473821160054</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.10808814160655</v>
+        <v>19.80844926510646</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.60686088698002</v>
+        <v>17.48158178221635</v>
       </c>
       <c r="C9">
-        <v>23.56320734457017</v>
+        <v>13.1982697893018</v>
       </c>
       <c r="D9">
-        <v>2.858790356523925</v>
+        <v>4.511300233889931</v>
       </c>
       <c r="F9">
-        <v>26.59856665133382</v>
+        <v>25.92202192584597</v>
       </c>
       <c r="G9">
-        <v>2.027928951866058</v>
+        <v>3.616380073837527</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.07058130884106</v>
+        <v>19.45147807296392</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.30142204551378</v>
+        <v>18.64260218312008</v>
       </c>
       <c r="C10">
-        <v>25.83752712889877</v>
+        <v>14.26081383354257</v>
       </c>
       <c r="D10">
-        <v>2.692786153467052</v>
+        <v>4.467955026747656</v>
       </c>
       <c r="F10">
-        <v>28.8036391162044</v>
+        <v>26.12882452651858</v>
       </c>
       <c r="G10">
-        <v>2.009550867382321</v>
+        <v>3.610771713886447</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.29668037314845</v>
+        <v>19.23118661122247</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.47407915232336</v>
+        <v>19.14923208568625</v>
       </c>
       <c r="C11">
-        <v>26.83106509353055</v>
+        <v>14.72004861885544</v>
       </c>
       <c r="D11">
-        <v>2.620792070988589</v>
+        <v>4.449236098710143</v>
       </c>
       <c r="F11">
-        <v>29.97512766384737</v>
+        <v>26.23758508867536</v>
       </c>
       <c r="G11">
-        <v>2.001214547688968</v>
+        <v>3.608334437907136</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.46548360617247</v>
+        <v>19.14034102065381</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.9108066792918</v>
+        <v>19.3378672616277</v>
       </c>
       <c r="C12">
-        <v>27.20170326233749</v>
+        <v>14.89043593644799</v>
       </c>
       <c r="D12">
-        <v>2.594149001377733</v>
+        <v>4.442291183060481</v>
       </c>
       <c r="F12">
-        <v>30.42995996560164</v>
+        <v>26.28086430890952</v>
       </c>
       <c r="G12">
-        <v>1.998056135479172</v>
+        <v>3.6074277831541</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.539721312619</v>
+        <v>19.10730876214893</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.81707046709052</v>
+        <v>19.29738596529937</v>
       </c>
       <c r="C13">
-        <v>27.12212309022674</v>
+        <v>14.85389692274149</v>
       </c>
       <c r="D13">
-        <v>2.59985729732357</v>
+        <v>4.443780512529127</v>
       </c>
       <c r="F13">
-        <v>30.33192905981895</v>
+        <v>26.27145057185888</v>
       </c>
       <c r="G13">
-        <v>1.99873651679802</v>
+        <v>3.607622324675285</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.5232614949709</v>
+        <v>19.11436160702254</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.51015406783056</v>
+        <v>19.16481625463902</v>
       </c>
       <c r="C14">
-        <v>26.86166789442957</v>
+        <v>14.73413715494247</v>
       </c>
       <c r="D14">
-        <v>2.618586929914956</v>
+        <v>4.448661860176991</v>
       </c>
       <c r="F14">
-        <v>30.01251391712649</v>
+        <v>26.24110385328073</v>
       </c>
       <c r="G14">
-        <v>2.000954767406353</v>
+        <v>3.608259521016207</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.47137989359853</v>
+        <v>19.13759587200638</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.32121367365539</v>
+        <v>19.08319163723195</v>
       </c>
       <c r="C15">
-        <v>26.70141306275571</v>
+        <v>14.6603219144734</v>
       </c>
       <c r="D15">
-        <v>2.630144050587655</v>
+        <v>4.451670516368876</v>
       </c>
       <c r="F15">
-        <v>29.81707499927233</v>
+        <v>26.2227876769264</v>
       </c>
       <c r="G15">
-        <v>2.002313135426958</v>
+        <v>3.608651940381544</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.4409679882317</v>
+        <v>19.15200647737495</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.22374272412338</v>
+        <v>18.60904894231563</v>
       </c>
       <c r="C16">
-        <v>25.77179662272651</v>
+        <v>14.23031214766843</v>
       </c>
       <c r="D16">
-        <v>2.697570846256806</v>
+        <v>4.469198444106932</v>
       </c>
       <c r="F16">
-        <v>28.73667780241561</v>
+        <v>26.12201089160775</v>
       </c>
       <c r="G16">
-        <v>2.010095729216781</v>
+        <v>3.610933280614106</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.28704822493328</v>
+        <v>19.23731394048015</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.53708339954496</v>
+        <v>18.31257351440173</v>
       </c>
       <c r="C17">
-        <v>25.19120059809727</v>
+        <v>13.9603002171284</v>
       </c>
       <c r="D17">
-        <v>2.739906413360689</v>
+        <v>4.48020703217422</v>
       </c>
       <c r="F17">
-        <v>28.15336479179811</v>
+        <v>26.06393811163045</v>
       </c>
       <c r="G17">
-        <v>2.014872833536088</v>
+        <v>3.612361932021065</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.2101249549996</v>
+        <v>19.29206184444575</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.13711584276121</v>
+        <v>18.14002851163489</v>
       </c>
       <c r="C18">
-        <v>24.85337157587453</v>
+        <v>13.8027279720594</v>
       </c>
       <c r="D18">
-        <v>2.764579567907644</v>
+        <v>4.486632918180137</v>
       </c>
       <c r="F18">
-        <v>27.82079493883427</v>
+        <v>26.03191986563576</v>
       </c>
       <c r="G18">
-        <v>2.017623093991336</v>
+        <v>3.613194390456324</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.17204174603634</v>
+        <v>19.3244316245666</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.00082287006115</v>
+        <v>18.0812647392826</v>
       </c>
       <c r="C19">
-        <v>24.73831222120116</v>
+        <v>13.74898869853255</v>
       </c>
       <c r="D19">
-        <v>2.772986059875271</v>
+        <v>4.488824768236957</v>
       </c>
       <c r="F19">
-        <v>27.70869312544865</v>
+        <v>26.02131712622903</v>
       </c>
       <c r="G19">
-        <v>2.018554874657191</v>
+        <v>3.613478093645798</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.16017927955431</v>
+        <v>19.33554198731631</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.61069682770257</v>
+        <v>18.34434383865112</v>
       </c>
       <c r="C20">
-        <v>25.25340603472623</v>
+        <v>13.9892786033571</v>
       </c>
       <c r="D20">
-        <v>2.735365602602792</v>
+        <v>4.479025417716146</v>
       </c>
       <c r="F20">
-        <v>28.21515459982838</v>
+        <v>26.06997696159405</v>
       </c>
       <c r="G20">
-        <v>2.014364068521677</v>
+        <v>3.612208739262415</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.21766970985457</v>
+        <v>19.28614257636771</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.60049924665246</v>
+        <v>19.20384328975699</v>
       </c>
       <c r="C21">
-        <v>26.93831902449115</v>
+        <v>14.76940920816138</v>
       </c>
       <c r="D21">
-        <v>2.61306767852459</v>
+        <v>4.447224195255261</v>
       </c>
       <c r="F21">
-        <v>30.10628902342508</v>
+        <v>26.24996076211659</v>
       </c>
       <c r="G21">
-        <v>2.000303301538441</v>
+        <v>3.608071919756753</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.48633248054131</v>
+        <v>19.13073407269975</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.85837966267026</v>
+        <v>19.74679673942588</v>
       </c>
       <c r="C22">
-        <v>28.00707923662411</v>
+        <v>15.2587681058083</v>
       </c>
       <c r="D22">
-        <v>2.536832058442932</v>
+        <v>4.427276873505656</v>
       </c>
       <c r="F22">
-        <v>31.43338294330619</v>
+        <v>26.3797833104007</v>
       </c>
       <c r="G22">
-        <v>1.991101403020233</v>
+        <v>3.605463164599101</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.72238888183456</v>
+        <v>19.03715570440356</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.19081029913029</v>
+        <v>19.45876507827876</v>
       </c>
       <c r="C23">
-        <v>27.43951586023135</v>
+        <v>14.99947637787066</v>
       </c>
       <c r="D23">
-        <v>2.577134689114144</v>
+        <v>4.43784661222334</v>
       </c>
       <c r="F23">
-        <v>30.72411679266436</v>
+        <v>26.30938634801965</v>
       </c>
       <c r="G23">
-        <v>1.996015626133629</v>
+        <v>3.606846857519661</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.59060888957453</v>
+        <v>19.08636173805884</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.57743240993594</v>
+        <v>18.32998699850835</v>
       </c>
       <c r="C24">
-        <v>25.22529555305886</v>
+        <v>13.97618475612728</v>
       </c>
       <c r="D24">
-        <v>2.737417471226076</v>
+        <v>4.479559323774753</v>
       </c>
       <c r="F24">
-        <v>28.18721076653911</v>
+        <v>26.06724253346685</v>
       </c>
       <c r="G24">
-        <v>2.014594068851786</v>
+        <v>3.612277963102486</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.21423966221709</v>
+        <v>19.28881589303212</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.56560991471462</v>
+        <v>17.03585320731483</v>
       </c>
       <c r="C25">
-        <v>22.68737412907149</v>
+        <v>12.7859686302259</v>
       </c>
       <c r="D25">
-        <v>2.922475351901793</v>
+        <v>4.528149479541542</v>
       </c>
       <c r="F25">
-        <v>25.81374172650876</v>
+        <v>25.85896621579219</v>
       </c>
       <c r="G25">
-        <v>2.034748368784417</v>
+        <v>3.618547182729012</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.03996502992834</v>
+        <v>19.54076220300936</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_142/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.02256285711054</v>
+        <v>25.17194283580154</v>
       </c>
       <c r="C2">
-        <v>11.83757829174547</v>
+        <v>20.67987585803712</v>
       </c>
       <c r="D2">
-        <v>4.567032479076931</v>
+        <v>3.066535040438935</v>
       </c>
       <c r="F2">
-        <v>25.75136884412301</v>
+        <v>24.16086912997656</v>
       </c>
       <c r="G2">
-        <v>3.623521267948413</v>
+        <v>2.049847074043148</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.75436466236953</v>
+        <v>13.07770021714245</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.30174406432782</v>
+        <v>23.43540325956872</v>
       </c>
       <c r="C3">
-        <v>11.15164274086809</v>
+        <v>19.22830768716708</v>
       </c>
       <c r="D3">
-        <v>4.595329416647688</v>
+        <v>3.168263033842941</v>
       </c>
       <c r="F3">
-        <v>25.70692265931041</v>
+        <v>23.10101046543744</v>
       </c>
       <c r="G3">
-        <v>3.627117985284113</v>
+        <v>2.060309135454492</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.91627106405603</v>
+        <v>13.18943409458385</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.84384209161699</v>
+        <v>22.31142008160185</v>
       </c>
       <c r="C4">
-        <v>10.70997559506592</v>
+        <v>18.2907919692151</v>
       </c>
       <c r="D4">
-        <v>4.613666375536664</v>
+        <v>3.232595423701579</v>
       </c>
       <c r="F4">
-        <v>25.69359818824865</v>
+        <v>22.48081027681728</v>
       </c>
       <c r="G4">
-        <v>3.629438500769168</v>
+        <v>2.066865693419515</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.02401601074505</v>
+        <v>13.29480471103823</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.65365645095613</v>
+        <v>21.83868284480823</v>
       </c>
       <c r="C5">
-        <v>10.52499156882023</v>
+        <v>17.89693523091277</v>
       </c>
       <c r="D5">
-        <v>4.621381281719958</v>
+        <v>3.259267082806737</v>
       </c>
       <c r="F5">
-        <v>25.69166318260308</v>
+        <v>22.23589960296009</v>
       </c>
       <c r="G5">
-        <v>3.630412430455598</v>
+        <v>2.069573577141173</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.07000032548402</v>
+        <v>13.34616255436282</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.6218680899397</v>
+        <v>21.75929181320242</v>
       </c>
       <c r="C6">
-        <v>10.49397820806057</v>
+        <v>17.8308171085451</v>
       </c>
       <c r="D6">
-        <v>4.622676991901289</v>
+        <v>3.263723093495131</v>
       </c>
       <c r="F6">
-        <v>25.69155234377818</v>
+        <v>22.19570907385314</v>
       </c>
       <c r="G6">
-        <v>3.630575863210736</v>
+        <v>2.070025468611599</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.07776092801564</v>
+        <v>13.35517548412335</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.84129132802053</v>
+        <v>22.30510436006893</v>
       </c>
       <c r="C7">
-        <v>10.70750085749212</v>
+        <v>18.28552833730972</v>
       </c>
       <c r="D7">
-        <v>4.613769439276879</v>
+        <v>3.232953297151585</v>
       </c>
       <c r="F7">
-        <v>25.69355796865769</v>
+        <v>22.47747545415331</v>
       </c>
       <c r="G7">
-        <v>3.62945152079503</v>
+        <v>2.066902063654922</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.02462778408241</v>
+        <v>13.29546432065179</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.77735099234826</v>
+        <v>24.58505294547935</v>
       </c>
       <c r="C8">
-        <v>11.60540502339296</v>
+        <v>20.1888603923632</v>
       </c>
       <c r="D8">
-        <v>4.576589730464344</v>
+        <v>3.10121160348345</v>
       </c>
       <c r="F8">
-        <v>25.73313685685498</v>
+        <v>23.78917168473894</v>
       </c>
       <c r="G8">
-        <v>3.62473821160054</v>
+        <v>2.053428484908753</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.80844926510646</v>
+        <v>13.10808814160663</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.48158178221635</v>
+        <v>28.60686088698012</v>
       </c>
       <c r="C9">
-        <v>13.1982697893018</v>
+        <v>23.56320734457015</v>
       </c>
       <c r="D9">
-        <v>4.511300233889931</v>
+        <v>2.858790356523734</v>
       </c>
       <c r="F9">
-        <v>25.92202192584597</v>
+        <v>26.59856665133391</v>
       </c>
       <c r="G9">
-        <v>3.616380073837527</v>
+        <v>2.027928951866058</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.45147807296392</v>
+        <v>13.07058130884101</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.64260218312008</v>
+        <v>31.30142204551382</v>
       </c>
       <c r="C10">
-        <v>14.26081383354257</v>
+        <v>25.83752712889888</v>
       </c>
       <c r="D10">
-        <v>4.467955026747656</v>
+        <v>2.692786153466973</v>
       </c>
       <c r="F10">
-        <v>26.12882452651858</v>
+        <v>28.80363911620454</v>
       </c>
       <c r="G10">
-        <v>3.610771713886447</v>
+        <v>2.009550867382453</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.23118661122247</v>
+        <v>13.2966803731485</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.14923208568625</v>
+        <v>32.47407915232336</v>
       </c>
       <c r="C11">
-        <v>14.72004861885544</v>
+        <v>26.83106509353063</v>
       </c>
       <c r="D11">
-        <v>4.449236098710143</v>
+        <v>2.620792070988815</v>
       </c>
       <c r="F11">
-        <v>26.23758508867536</v>
+        <v>29.97512766384743</v>
       </c>
       <c r="G11">
-        <v>3.608334437907136</v>
+        <v>2.001214547689105</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.14034102065381</v>
+        <v>13.46548360617244</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.3378672616277</v>
+        <v>32.91080667929169</v>
       </c>
       <c r="C12">
-        <v>14.89043593644799</v>
+        <v>27.20170326233746</v>
       </c>
       <c r="D12">
-        <v>4.442291183060481</v>
+        <v>2.59414900137772</v>
       </c>
       <c r="F12">
-        <v>26.28086430890952</v>
+        <v>30.42995996560161</v>
       </c>
       <c r="G12">
-        <v>3.6074277831541</v>
+        <v>1.998056135479173</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.10730876214893</v>
+        <v>13.53972131261917</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.29738596529937</v>
+        <v>32.81707046709057</v>
       </c>
       <c r="C13">
-        <v>14.85389692274149</v>
+        <v>27.12212309022685</v>
       </c>
       <c r="D13">
-        <v>4.443780512529127</v>
+        <v>2.599857297323383</v>
       </c>
       <c r="F13">
-        <v>26.27145057185888</v>
+        <v>30.33192905981906</v>
       </c>
       <c r="G13">
-        <v>3.607622324675285</v>
+        <v>1.998736516798289</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.11436160702254</v>
+        <v>13.52326149497089</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.16481625463902</v>
+        <v>32.51015406783051</v>
       </c>
       <c r="C14">
-        <v>14.73413715494247</v>
+        <v>26.86166789442951</v>
       </c>
       <c r="D14">
-        <v>4.448661860176991</v>
+        <v>2.618586929915004</v>
       </c>
       <c r="F14">
-        <v>26.24110385328073</v>
+        <v>30.01251391712644</v>
       </c>
       <c r="G14">
-        <v>3.608259521016207</v>
+        <v>2.000954767406753</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.13759587200638</v>
+        <v>13.47137989359858</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.08319163723195</v>
+        <v>32.3212136736552</v>
       </c>
       <c r="C15">
-        <v>14.6603219144734</v>
+        <v>26.70141306275558</v>
       </c>
       <c r="D15">
-        <v>4.451670516368876</v>
+        <v>2.630144050587777</v>
       </c>
       <c r="F15">
-        <v>26.2227876769264</v>
+        <v>29.81707499927206</v>
       </c>
       <c r="G15">
-        <v>3.608651940381544</v>
+        <v>2.002313135427093</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.15200647737495</v>
+        <v>13.4409679882318</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.60904894231563</v>
+        <v>31.22374272412337</v>
       </c>
       <c r="C16">
-        <v>14.23031214766843</v>
+        <v>25.77179662272659</v>
       </c>
       <c r="D16">
-        <v>4.469198444106932</v>
+        <v>2.697570846256806</v>
       </c>
       <c r="F16">
-        <v>26.12201089160775</v>
+        <v>28.7366778024157</v>
       </c>
       <c r="G16">
-        <v>3.610933280614106</v>
+        <v>2.010095729217316</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.23731394048015</v>
+        <v>13.28704822493333</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.31257351440173</v>
+        <v>30.53708339954488</v>
       </c>
       <c r="C17">
-        <v>13.9603002171284</v>
+        <v>25.19120059809725</v>
       </c>
       <c r="D17">
-        <v>4.48020703217422</v>
+        <v>2.739906413360731</v>
       </c>
       <c r="F17">
-        <v>26.06393811163045</v>
+        <v>28.15336479179819</v>
       </c>
       <c r="G17">
-        <v>3.612361932021065</v>
+        <v>2.01487283353609</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.29206184444575</v>
+        <v>13.21012495499974</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.14002851163489</v>
+        <v>30.13711584276122</v>
       </c>
       <c r="C18">
-        <v>13.8027279720594</v>
+        <v>24.85337157587457</v>
       </c>
       <c r="D18">
-        <v>4.486632918180137</v>
+        <v>2.764579567907652</v>
       </c>
       <c r="F18">
-        <v>26.03191986563576</v>
+        <v>27.82079493883427</v>
       </c>
       <c r="G18">
-        <v>3.613194390456324</v>
+        <v>2.01762309399147</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.3244316245666</v>
+        <v>13.17204174603627</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.0812647392826</v>
+        <v>30.00082287006129</v>
       </c>
       <c r="C19">
-        <v>13.74898869853255</v>
+        <v>24.73831222120127</v>
       </c>
       <c r="D19">
-        <v>4.488824768236957</v>
+        <v>2.772986059875145</v>
       </c>
       <c r="F19">
-        <v>26.02131712622903</v>
+        <v>27.70869312544878</v>
       </c>
       <c r="G19">
-        <v>3.613478093645798</v>
+        <v>2.018554874657195</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.33554198731631</v>
+        <v>13.1601792795542</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.34434383865112</v>
+        <v>30.6106968277027</v>
       </c>
       <c r="C20">
-        <v>13.9892786033571</v>
+        <v>25.2534060347264</v>
       </c>
       <c r="D20">
-        <v>4.479025417716146</v>
+        <v>2.735365602602655</v>
       </c>
       <c r="F20">
-        <v>26.06997696159405</v>
+        <v>28.21515459982852</v>
       </c>
       <c r="G20">
-        <v>3.612208739262415</v>
+        <v>2.014364068521811</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.28614257636771</v>
+        <v>13.21766970985457</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.20384328975699</v>
+        <v>32.60049924665239</v>
       </c>
       <c r="C21">
-        <v>14.76940920816138</v>
+        <v>26.93831902449115</v>
       </c>
       <c r="D21">
-        <v>4.447224195255261</v>
+        <v>2.613067678524792</v>
       </c>
       <c r="F21">
-        <v>26.24996076211659</v>
+        <v>30.10628902342519</v>
       </c>
       <c r="G21">
-        <v>3.608071919756753</v>
+        <v>2.000303301538443</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.13073407269975</v>
+        <v>13.48633248054139</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.74679673942588</v>
+        <v>33.8583796626703</v>
       </c>
       <c r="C22">
-        <v>15.2587681058083</v>
+        <v>28.00707923662388</v>
       </c>
       <c r="D22">
-        <v>4.427276873505656</v>
+        <v>2.536832058443031</v>
       </c>
       <c r="F22">
-        <v>26.3797833104007</v>
+        <v>31.43338294330632</v>
       </c>
       <c r="G22">
-        <v>3.605463164599101</v>
+        <v>1.991101403020233</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.03715570440356</v>
+        <v>13.72238888183467</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.45876507827876</v>
+        <v>33.19081029913035</v>
       </c>
       <c r="C23">
-        <v>14.99947637787066</v>
+        <v>27.43951586023151</v>
       </c>
       <c r="D23">
-        <v>4.43784661222334</v>
+        <v>2.577134689114065</v>
       </c>
       <c r="F23">
-        <v>26.30938634801965</v>
+        <v>30.72411679266468</v>
       </c>
       <c r="G23">
-        <v>3.606846857519661</v>
+        <v>1.996015626133631</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.08636173805884</v>
+        <v>13.59060888957469</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.32998699850835</v>
+        <v>30.57743240993604</v>
       </c>
       <c r="C24">
-        <v>13.97618475612728</v>
+        <v>25.22529555305886</v>
       </c>
       <c r="D24">
-        <v>4.479559323774753</v>
+        <v>2.737417471226072</v>
       </c>
       <c r="F24">
-        <v>26.06724253346685</v>
+        <v>28.18721076653915</v>
       </c>
       <c r="G24">
-        <v>3.612277963102486</v>
+        <v>2.01459406885152</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.28881589303212</v>
+        <v>13.21423966221704</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.03585320731483</v>
+        <v>27.5656099147147</v>
       </c>
       <c r="C25">
-        <v>12.7859686302259</v>
+        <v>22.6873741290715</v>
       </c>
       <c r="D25">
-        <v>4.528149479541542</v>
+        <v>2.922475351901786</v>
       </c>
       <c r="F25">
-        <v>25.85896621579219</v>
+        <v>25.81374172650873</v>
       </c>
       <c r="G25">
-        <v>3.618547182729012</v>
+        <v>2.034748368784417</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.54076220300936</v>
+        <v>13.03996502992821</v>
       </c>
       <c r="K25">
         <v>0</v>
